--- a/session4/people.xlsx
+++ b/session4/people.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/Evans/myCourses/WINTERS/GovAnalytics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/Evans/DataDriven_ManagementAndPolicy/session4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>cod</t>
   </si>
@@ -101,28 +101,16 @@
     <t>NY</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
     <t>WA</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>FL</t>
+    <t>CO</t>
   </si>
 </sst>
 </file>
@@ -440,7 +428,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +441,7 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -481,7 +469,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -495,7 +483,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -509,7 +497,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -523,7 +511,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -579,7 +567,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -593,7 +581,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -607,7 +595,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -621,7 +609,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -649,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -677,7 +665,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -691,7 +679,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -705,7 +693,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -733,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>1</v>
